--- a/HISTORIC_CORRECCIONS/DF_CPA.xlsx
+++ b/HISTORIC_CORRECCIONS/DF_CPA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,17 +440,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID-TOTS_cp</t>
+          <t>A_IDTOTS_CP</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CLAU_UNICA</t>
+          <t>A_CLAU_UNICA_CP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID_cp</t>
+          <t>A_ID_CP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -510,70 +510,75 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ID-TOTS_ca</t>
+          <t>A_IDTOTS_CA</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>ID_ca</t>
+          <t>A_CLAU_UNICA_CA</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>A_ID_CA</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>A_EXPEDIENT_CA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>A_EMPRESA_CA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>A_REF_ODOO_CA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>A_FECHA_ALTA_ODOO_CA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>A_NUMERO_CA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>A_FECHA_EMISION_CA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>A_PROVEEDOR_CA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>A_ORIGEN_CA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>A_IMPORTE_CA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>A_ACUMULADO_CA</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>A_ESTADO_CA</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>_merge</t>
         </is>
@@ -651,59 +656,64 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>5796-C-C/00001</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00001</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="U2" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="W2" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>C-C/00001</t>
         </is>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1314.06</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>1314.06</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -781,59 +791,64 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>5796-C-C/00002</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00002</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="U3" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="W3" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>C-C/00002</t>
         </is>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1130.14</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>2444.20</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -911,59 +926,64 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>5796-C-C/00003</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00004</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="U4" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="W4" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>C-C/00003</t>
         </is>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>3714.7</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>6158.90</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1041,59 +1061,64 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>5796-C-C/00004</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00005</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="U5" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="W5" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>C-C/00004</t>
         </is>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>4319.7</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>10478.60</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1171,59 +1196,64 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>5796-C-C/00005</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00007</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="U6" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>C-C/00005</t>
         </is>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>3780.04</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>14258.64</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1301,59 +1331,64 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>5796-C-C/00006</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00008</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="U7" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>C-C/00006</t>
         </is>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>4126.1</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>18384.74</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1431,59 +1466,64 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>5796-C-C/00007</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00009</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="U8" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>C-C/00007</t>
         </is>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>3523.52</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>21908.26</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1561,59 +1601,64 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>5796-C-C/00008</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00010</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="U9" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="W9" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>C-C/00008</t>
         </is>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>4467.32</v>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>26375.58</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1691,59 +1736,64 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>5796-C-C/00009</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00011</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="U10" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="W10" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>C-C/00009</t>
         </is>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>4481.84</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>30857.42</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1821,59 +1871,64 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>5796-C-C/00010</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00012</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="U11" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="W11" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>C-C/00010</t>
         </is>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>4038.98</v>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>34896.40</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1951,59 +2006,64 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>5796-C-C/00011</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00013</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="U12" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="W12" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>C-C/00011</t>
         </is>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>3574.34</v>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>38470.74</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2081,59 +2141,64 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>5796-C-C/00012</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00014</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="U13" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="W13" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>C-C/00012</t>
         </is>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>3518.68</v>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>41989.42</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2211,59 +2276,64 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>5796-C-C/00013</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00015</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="U14" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="W14" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>C-C/00013</t>
         </is>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>3947.02</v>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>45936.44</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2341,59 +2411,64 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>5796-C-C/00014</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00016</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="U15" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="W15" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>C-C/00014</t>
         </is>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>3695.34</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>49631.78</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2471,59 +2546,64 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>5796-C-C/00015</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00018</t>
         </is>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="U16" s="2" t="n">
         <v>45995</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="W16" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>C-C/00015</t>
         </is>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>4157.56</v>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>53789.34</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2601,59 +2681,64 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>5796-C-C/00016</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00019</t>
         </is>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="U17" s="2" t="n">
         <v>45995</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="W17" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>C-C/00016</t>
         </is>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>3605.8</v>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>57395.14</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2731,59 +2816,64 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>5796-C-C/00018</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00022</t>
         </is>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="U18" s="2" t="n">
         <v>46002</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="W18" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>C-C/00018</t>
         </is>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>4414.08</v>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>61809.22</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2861,59 +2951,64 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>5796-C-C/00019</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>5796</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>ADG32 5796 NSACARES SL</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00023</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="U19" s="2" t="n">
         <v>46002</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="W19" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>C-C/00019</t>
         </is>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>3780.04</v>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>65589.26</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2991,59 +3086,64 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>6265-C-C/00001</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00001</t>
         </is>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="U20" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="W20" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>C-C/00001</t>
         </is>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>1274.13</v>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>1274.13</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3121,59 +3221,64 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>6265-C-C/00002</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00002</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="U21" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="W21" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>C-C/00002</t>
         </is>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>1231.78</v>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>2505.91</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3251,59 +3356,64 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>6265-C-C/00003</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00003</t>
         </is>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="U22" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="W22" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>C-C/00003</t>
         </is>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>3816.34</v>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>6322.25</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3381,59 +3491,64 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>6265-C-C/00004</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00005</t>
         </is>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="U23" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="W23" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>C-C/00004</t>
         </is>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>4205.95</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>10528.20</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3511,59 +3626,64 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>6265-C-C/00005</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00006</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="U24" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="W24" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>C-C/00005</t>
         </is>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>3764.31</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>14292.51</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3641,59 +3761,64 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
+          <t>6265-C-C/00006</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00007</t>
         </is>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="U25" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="W25" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>C-C/00006</t>
         </is>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>3963.96</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>18256.47</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3771,59 +3896,64 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>6265-C-C/00007</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00008</t>
         </is>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="U26" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="W26" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>C-C/00007</t>
         </is>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>4164.82</v>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>22421.29</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -3901,59 +4031,64 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>6265-C-C/00008</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00009</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="U27" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="W27" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>C-C/00008</t>
         </is>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>4641.56</v>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>27062.85</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4031,59 +4166,64 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>6265-C-C/00009</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00010</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="U28" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="W28" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>C-C/00009</t>
         </is>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>3760.68</v>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>30823.53</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4161,59 +4301,64 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>6265-C-C/00010</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00011</t>
         </is>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="U29" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="W29" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>C-C/00010</t>
         </is>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>3886.52</v>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>34710.05</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4291,59 +4436,64 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
+          <t>6265-C-C/00011</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00012</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="U30" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="W30" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>C-C/00011</t>
         </is>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>4780.71</v>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>39490.76</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4421,59 +4571,64 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
+          <t>6265-C-C/00012</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00013</t>
         </is>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="U31" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="W31" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>C-C/00012</t>
         </is>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>3644.52</v>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>43135.28</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4551,59 +4706,64 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
+          <t>6265-C-C/00013</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00014</t>
         </is>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="U32" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="W32" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>C-C/00013</t>
         </is>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>3455.76</v>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>46591.04</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4681,59 +4841,64 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>6265-C-C/00014</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00015</t>
         </is>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="U33" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="W33" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>C-C/00014</t>
         </is>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>5021.5</v>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>51612.54</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4811,59 +4976,64 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>6265-C-C/00015</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00016</t>
         </is>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="U34" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="W34" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>C-C/00015</t>
         </is>
       </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
         <v>5042.07</v>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>56654.61</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -4941,59 +5111,64 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>6265-C-C/00016</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00017</t>
         </is>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="U35" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="W35" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>C-C/00016</t>
         </is>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>3463.02</v>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>60117.63</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5071,59 +5246,64 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
+          <t>6265-C-C/00017</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00018</t>
         </is>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="U36" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="W36" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>C-C/00017</t>
         </is>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>3903.46</v>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>64021.09</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5201,59 +5381,64 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>6265-C-C/00018</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>6265</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>ADG32 6265 SMORENO SL</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00019</t>
         </is>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="U37" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="W37" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>C-C/00018</t>
         </is>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>3840.54</v>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>67861.63</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5331,59 +5516,64 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>6320-C-C/00001</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00001</t>
         </is>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="U38" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="W38" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>C-C/00001</t>
         </is>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>1193.06</v>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>1193.06</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5461,59 +5651,64 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>6320-C-C/00002</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00002</t>
         </is>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="U39" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="W39" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>C-C/00002</t>
         </is>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>1173.7</v>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>2366.76</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5591,59 +5786,64 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
+          <t>6320-C-C/00003</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00003</t>
         </is>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="U40" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="W40" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>C-C/00003</t>
         </is>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>3494.48</v>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>5861.24</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5721,59 +5921,64 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
+          <t>6320-C-C/00004</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00005</t>
         </is>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="U41" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="W41" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>C-C/00004</t>
         </is>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>3506.58</v>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>9367.82</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5851,59 +6056,64 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
+          <t>6320-C-C/00005</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00006</t>
         </is>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="U42" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="W42" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>C-C/00005</t>
         </is>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>4418.92</v>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>13786.74</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -5981,59 +6191,64 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>6320-C-C/00006</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00007</t>
         </is>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="U43" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="W43" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>C-C/00006</t>
         </is>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>4498.78</v>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>18285.52</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6111,59 +6326,64 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
+          <t>6320-C-C/00007</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00008</t>
         </is>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="U44" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="W44" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>C-C/00007</t>
         </is>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>3988.16</v>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>22273.68</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6241,59 +6461,64 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
+          <t>6320-C-C/00008</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00009</t>
         </is>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="U45" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="W45" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>C-C/00008</t>
         </is>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>3954.28</v>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>26227.96</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6371,59 +6596,64 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
+          <t>6320-C-C/00009</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00010</t>
         </is>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="U46" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="W46" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>C-C/00009</t>
         </is>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>3809.08</v>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>30037.04</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6501,59 +6731,64 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
+          <t>6320-C-C/00010</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00011</t>
         </is>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="U47" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="W47" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>C-C/00010</t>
         </is>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>3988.16</v>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>34025.20</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6631,59 +6866,64 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
+          <t>6320-C-C/00011</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00013</t>
         </is>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="U48" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="W48" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>C-C/00011</t>
         </is>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>4539.92</v>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>38565.12</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6761,59 +7001,64 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
+          <t>6320-C-C/00012</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00014</t>
         </is>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="U49" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="W49" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>C-C/00012</t>
         </is>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>4014.78</v>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>42579.90</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -6891,59 +7136,64 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
+          <t>6320-C-C/00013</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00015</t>
         </is>
       </c>
-      <c r="T50" s="2" t="n">
+      <c r="U50" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="W50" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>C-C/00013</t>
         </is>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>4653.66</v>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>47233.56</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7021,59 +7271,64 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
+          <t>6320-C-C/00014</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00016</t>
         </is>
       </c>
-      <c r="T51" s="2" t="n">
+      <c r="U51" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="W51" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W51" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>C-C/00014</t>
         </is>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>4602.84</v>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>51836.40</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7151,59 +7406,64 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>6320-C-C/00015</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00017</t>
         </is>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="U52" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="W52" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>C-C/00015</t>
         </is>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>4087.38</v>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>55923.78</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AB52" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7281,59 +7541,64 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
+          <t>6320-C-C/00016</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00018</t>
         </is>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="U53" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="W53" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W53" t="inlineStr">
+      <c r="X53" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>C-C/00016</t>
         </is>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>4232.58</v>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>60156.36</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7411,59 +7676,64 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
+          <t>6320-C-C/00017</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00019</t>
         </is>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="U54" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="W54" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr">
+      <c r="Y54" t="inlineStr">
         <is>
           <t>C-C/00017</t>
         </is>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>4334.22</v>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>64490.58</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7541,59 +7811,64 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
+          <t>6320-C-C/00018</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>6320</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00020</t>
         </is>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="U55" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="W55" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W55" t="inlineStr">
+      <c r="X55" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>C-C/00018</t>
         </is>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>4365.68</v>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>68856.26</t>
         </is>
       </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
+      <c r="AC55" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7671,59 +7946,64 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
+          <t>6352-C-C/00001</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00001</t>
         </is>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="U56" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="W56" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="W56" t="inlineStr">
+      <c r="X56" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>C-C/00001</t>
         </is>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>1056.33</v>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>1056.33</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
+      <c r="AC56" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7801,59 +8081,64 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
+          <t>6352-C-C/00002</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00002</t>
         </is>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="U57" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="W57" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="W57" t="inlineStr">
+      <c r="X57" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr">
+      <c r="Y57" t="inlineStr">
         <is>
           <t>C-C/00002</t>
         </is>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>1266.87</v>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>2323.20</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AB57" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr">
+      <c r="AC57" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -7931,59 +8216,64 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
+          <t>6352-C-C/00003</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00003</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="U58" s="2" t="n">
         <v>45953</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="W58" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W58" t="inlineStr">
+      <c r="X58" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr">
+      <c r="Y58" t="inlineStr">
         <is>
           <t>C-C/00003</t>
         </is>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>4020.23</v>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AA58" t="inlineStr">
         <is>
           <t>6343.43</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8061,59 +8351,64 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
+          <t>6352-C-C/00004</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00004</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="U59" s="2" t="n">
         <v>45953</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="W59" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="W59" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>C-C/00004</t>
         </is>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>3661.46</v>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AA59" t="inlineStr">
         <is>
           <t>10004.89</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8191,59 +8486,64 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
+          <t>6352-C-C/00005</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00005</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="U60" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="W60" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W60" t="inlineStr">
+      <c r="X60" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr">
+      <c r="Y60" t="inlineStr">
         <is>
           <t>C-C/00005</t>
         </is>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>4325.15</v>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>14330.04</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr">
+      <c r="AC60" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8321,59 +8621,64 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
+          <t>6352-C-C/00006</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00007</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="U61" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="W61" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="W61" t="inlineStr">
+      <c r="X61" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>C-C/00006</t>
         </is>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>3539.25</v>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>17869.29</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AB61" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AC61" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8451,59 +8756,64 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
+          <t>6352-C-C/00007</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00008</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="U62" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="W62" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W62" t="inlineStr">
+      <c r="X62" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr">
+      <c r="Y62" t="inlineStr">
         <is>
           <t>C-C/00007</t>
         </is>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>4266.46</v>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>22135.75</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AB62" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
+      <c r="AC62" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8581,59 +8891,64 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
+          <t>6352-C-C/00008</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00009</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="U63" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="W63" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="W63" t="inlineStr">
+      <c r="X63" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>C-C/00008</t>
         </is>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>3643.31</v>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>25779.06</t>
         </is>
       </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AB63" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8711,59 +9026,64 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
+          <t>6352-C-C/00009</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00011</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="U64" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="W64" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="X64" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="Y64" t="inlineStr">
         <is>
           <t>C-C/00009</t>
         </is>
       </c>
-      <c r="Y64" t="n">
+      <c r="Z64" t="n">
         <v>4049.27</v>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>29828.33</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AB64" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AC64" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8841,59 +9161,64 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
+          <t>6352-C-C/00010</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00012</t>
         </is>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="U65" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="W65" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="W65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>C-C/00010</t>
         </is>
       </c>
-      <c r="Y65" t="n">
+      <c r="Z65" t="n">
         <v>3403.73</v>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>33232.06</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB65" t="inlineStr">
+      <c r="AC65" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -8971,59 +9296,64 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
+          <t>6352-C-C/00011</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00013</t>
         </is>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="U66" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="W66" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="W66" t="inlineStr">
+      <c r="X66" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr">
+      <c r="Y66" t="inlineStr">
         <is>
           <t>C-C/00011</t>
         </is>
       </c>
-      <c r="Y66" t="n">
+      <c r="Z66" t="n">
         <v>3916.77</v>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="AA66" t="inlineStr">
         <is>
           <t>37148.83</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AB66" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB66" t="inlineStr">
+      <c r="AC66" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9101,59 +9431,64 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
+          <t>6352-C-C/00012</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00014</t>
         </is>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="U67" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="W67" s="2" t="n">
         <v>45980</v>
       </c>
-      <c r="W67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>C-C/00012</t>
         </is>
       </c>
-      <c r="Y67" t="n">
+      <c r="Z67" t="n">
         <v>3781.25</v>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AA67" t="inlineStr">
         <is>
           <t>40930.08</t>
         </is>
       </c>
-      <c r="AA67" t="inlineStr">
+      <c r="AB67" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB67" t="inlineStr">
+      <c r="AC67" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9231,59 +9566,64 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
+          <t>6352-C-C/00013</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00015</t>
         </is>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="U68" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="W68" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W68" t="inlineStr">
+      <c r="X68" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>C-C/00013</t>
         </is>
       </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="n">
         <v>4823.06</v>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>45753.14</t>
         </is>
       </c>
-      <c r="AA68" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB68" t="inlineStr">
+      <c r="AC68" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9361,59 +9701,64 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
+          <t>6352-C-C/00014</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00016</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="U69" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="W69" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="W69" t="inlineStr">
+      <c r="X69" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr">
+      <c r="Y69" t="inlineStr">
         <is>
           <t>C-C/00014</t>
         </is>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>4241.05</v>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="AA69" t="inlineStr">
         <is>
           <t>49994.19</t>
         </is>
       </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AB69" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9491,59 +9836,64 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
+          <t>6352-C-C/00015</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00017</t>
         </is>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="U70" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="W70" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W70" t="inlineStr">
+      <c r="X70" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr">
+      <c r="Y70" t="inlineStr">
         <is>
           <t>C-C/00015</t>
         </is>
       </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="n">
         <v>4040.8</v>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>54034.99</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr">
+      <c r="AC70" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9621,59 +9971,64 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
+          <t>6352-C-C/00016</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00018</t>
         </is>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="U71" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="W71" s="2" t="n">
         <v>45994</v>
       </c>
-      <c r="W71" t="inlineStr">
+      <c r="X71" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr">
+      <c r="Y71" t="inlineStr">
         <is>
           <t>C-C/00016</t>
         </is>
       </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="n">
         <v>3861.11</v>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>57896.10</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AB71" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
+      <c r="AC71" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9751,59 +10106,64 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
+          <t>6352-C-C/00017</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00019</t>
         </is>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="U72" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="W72" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W72" t="inlineStr">
+      <c r="X72" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr">
+      <c r="Y72" t="inlineStr">
         <is>
           <t>C-C/00017</t>
         </is>
       </c>
-      <c r="Y72" t="n">
+      <c r="Z72" t="n">
         <v>4420.74</v>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AA72" t="inlineStr">
         <is>
           <t>62316.84</t>
         </is>
       </c>
-      <c r="AA72" t="inlineStr">
+      <c r="AB72" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB72" t="inlineStr">
+      <c r="AC72" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -9881,59 +10241,64 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
+          <t>6352-C-C/00018</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>6352</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>ADG32 6352 SAANANOU SL</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>MGZ01/ENTRA/00020</t>
         </is>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="U73" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="W73" s="2" t="n">
         <v>46001</v>
       </c>
-      <c r="W73" t="inlineStr">
+      <c r="X73" t="inlineStr">
         <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr">
+      <c r="Y73" t="inlineStr">
         <is>
           <t>C-C/00018</t>
         </is>
       </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
         <v>3950.65</v>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AA73" t="inlineStr">
         <is>
           <t>66267.49</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AB73" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AB73" t="inlineStr">
+      <c r="AC73" t="inlineStr">
         <is>
           <t>both</t>
         </is>

--- a/HISTORIC_CORRECCIONS/DF_CPA.xlsx
+++ b/HISTORIC_CORRECCIONS/DF_CPA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC73"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>537501</t>
+          <t>537495</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>540082</t>
+          <t>540083</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
@@ -4834,73 +4834,23 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>6265-C-C/00014</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>6265</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>ADG32 6265 SMORENO SL</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>MGZ01/ENTRA/00015</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="n">
-        <v>45987</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="W33" s="2" t="n">
-        <v>45987</v>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>ALUBIX SL</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>C-C/00014</t>
-        </is>
-      </c>
-      <c r="Z33" t="n">
-        <v>5021.5</v>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>51612.54</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>Hecho</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -5445,127 +5395,77 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>6320-C-C/00001</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ADG32 6320 MNAVARRO SL</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>C-C/00001</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>536438</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>6265-C-C/00024</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>6265</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>ADG32 6265 SMORENO SL</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>MGZ01/ENTRA/00015</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="X38" t="inlineStr">
         <is>
           <t>ALUBIX SL</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>1193.06</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1193.06</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Pedido de compra</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Totalmente facturado</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>6320-C-C/00001</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>ADG32 6320 MNAVARRO SL</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>MGZ01/ENTRA/00001</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W38" s="2" t="n">
-        <v>45950</v>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>ALUBIX SL</t>
-        </is>
-      </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>C-C/00001</t>
+          <t>C-C/00014</t>
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>1193.06</v>
+        <v>5021.5</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>1193.06</t>
+          <t>51612.54</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5575,24 +5475,24 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>right_only</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6320-C-C/00002</t>
+          <t>6320-C-C/00001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5607,7 +5507,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>C-C/00002</t>
+          <t>C-C/00001</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
@@ -5615,7 +5515,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>536437</t>
+          <t>536438</t>
         </is>
       </c>
       <c r="I39" s="2" t="n">
@@ -5623,15 +5523,15 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1173.7</v>
+        <v>1193.06</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2366.76</t>
+          <t>1193.06</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -5646,17 +5546,17 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>6320-C-C/00002</t>
+          <t>6320-C-C/00001</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -5671,7 +5571,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00002</t>
+          <t>MGZ01/ENTRA/00001</t>
         </is>
       </c>
       <c r="U39" s="2" t="n">
@@ -5679,7 +5579,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W39" s="2" t="n">
@@ -5687,20 +5587,20 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>C-C/00002</t>
+          <t>C-C/00001</t>
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>1173.7</v>
+        <v>1193.06</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2366.76</t>
+          <t>1193.06</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5717,17 +5617,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6320-C-C/00003</t>
+          <t>6320-C-C/00002</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5742,31 +5642,31 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>C-C/00003</t>
+          <t>C-C/00002</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>537484</t>
+          <t>536437</t>
         </is>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>3494.48</v>
+        <v>1173.7</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5861.24</t>
+          <t>2366.76</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -5781,17 +5681,17 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>6320-C-C/00003</t>
+          <t>6320-C-C/00002</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -5806,36 +5706,36 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00003</t>
+          <t>MGZ01/ENTRA/00002</t>
         </is>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W40" s="2" t="n">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>C-C/00003</t>
+          <t>C-C/00002</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>3494.48</v>
+        <v>1173.7</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>5861.24</t>
+          <t>2366.76</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5852,17 +5752,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6320-C-C/00004</t>
+          <t>6320-C-C/00003</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5877,7 +5777,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>C-C/00004</t>
+          <t>C-C/00003</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
@@ -5885,7 +5785,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>537486</t>
+          <t>537484</t>
         </is>
       </c>
       <c r="I41" s="2" t="n">
@@ -5893,15 +5793,15 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>3506.58</v>
+        <v>3494.48</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>9367.82</t>
+          <t>5861.24</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -5916,17 +5816,17 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>6320-C-C/00004</t>
+          <t>6320-C-C/00003</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -5941,7 +5841,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00005</t>
+          <t>MGZ01/ENTRA/00003</t>
         </is>
       </c>
       <c r="U41" s="2" t="n">
@@ -5957,20 +5857,20 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>C-C/00004</t>
+          <t>C-C/00003</t>
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>3506.58</v>
+        <v>3494.48</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>9367.82</t>
+          <t>5861.24</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5987,17 +5887,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6320-C-C/00005</t>
+          <t>6320-C-C/00004</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6012,31 +5912,31 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>C-C/00005</t>
+          <t>C-C/00004</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>540056</t>
+          <t>537486</t>
         </is>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4418.92</v>
+        <v>3506.58</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13786.74</t>
+          <t>9367.82</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -6051,17 +5951,17 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>6320-C-C/00005</t>
+          <t>6320-C-C/00004</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -6076,36 +5976,36 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00006</t>
+          <t>MGZ01/ENTRA/00005</t>
         </is>
       </c>
       <c r="U42" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W42" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>C-C/00005</t>
+          <t>C-C/00004</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>4418.92</v>
+        <v>3506.58</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>13786.74</t>
+          <t>9367.82</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -6122,17 +6022,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6320-C-C/00006</t>
+          <t>6320-C-C/00005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6147,7 +6047,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>C-C/00006</t>
+          <t>C-C/00005</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
@@ -6155,7 +6055,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>540057</t>
+          <t>540056</t>
         </is>
       </c>
       <c r="I43" s="2" t="n">
@@ -6163,15 +6063,15 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4498.78</v>
+        <v>4418.92</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>18285.52</t>
+          <t>13786.74</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -6186,17 +6086,17 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>6320-C-C/00006</t>
+          <t>6320-C-C/00005</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -6211,7 +6111,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00007</t>
+          <t>MGZ01/ENTRA/00006</t>
         </is>
       </c>
       <c r="U43" s="2" t="n">
@@ -6219,7 +6119,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="W43" s="2" t="n">
@@ -6227,20 +6127,20 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>C-C/00006</t>
+          <t>C-C/00005</t>
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>4498.78</v>
+        <v>4418.92</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>18285.52</t>
+          <t>13786.74</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -6257,17 +6157,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6320-C-C/00007</t>
+          <t>6320-C-C/00006</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6282,31 +6182,31 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>C-C/00007</t>
+          <t>C-C/00006</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>542290</t>
+          <t>540057</t>
         </is>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>3988.16</v>
+        <v>4498.78</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>22273.68</t>
+          <t>18285.52</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -6321,17 +6221,17 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>6320-C-C/00007</t>
+          <t>6320-C-C/00006</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -6346,36 +6246,36 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00008</t>
+          <t>MGZ01/ENTRA/00007</t>
         </is>
       </c>
       <c r="U44" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W44" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>C-C/00007</t>
+          <t>C-C/00006</t>
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>3988.16</v>
+        <v>4498.78</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>22273.68</t>
+          <t>18285.52</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -6392,17 +6292,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6320-C-C/00008</t>
+          <t>6320-C-C/00007</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6417,7 +6317,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>C-C/00008</t>
+          <t>C-C/00007</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
@@ -6425,7 +6325,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>542293</t>
+          <t>542290</t>
         </is>
       </c>
       <c r="I45" s="2" t="n">
@@ -6433,15 +6333,15 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>3954.28</v>
+        <v>3988.16</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>26227.96</t>
+          <t>22273.68</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -6456,17 +6356,17 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>6320-C-C/00008</t>
+          <t>6320-C-C/00007</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -6481,7 +6381,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00009</t>
+          <t>MGZ01/ENTRA/00008</t>
         </is>
       </c>
       <c r="U45" s="2" t="n">
@@ -6489,7 +6389,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W45" s="2" t="n">
@@ -6497,20 +6397,20 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>C-C/00008</t>
+          <t>C-C/00007</t>
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>3954.28</v>
+        <v>3988.16</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>26227.96</t>
+          <t>22273.68</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -6527,17 +6427,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6320-C-C/00009</t>
+          <t>6320-C-C/00008</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6552,19 +6452,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>C-C/00009</t>
+          <t>C-C/00008</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>544981</t>
+          <t>542293</t>
         </is>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -6572,11 +6472,11 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>3809.08</v>
+        <v>3954.28</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>30037.04</t>
+          <t>26227.96</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -6591,17 +6491,17 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>6320-C-C/00009</t>
+          <t>6320-C-C/00008</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -6616,19 +6516,19 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00010</t>
+          <t>MGZ01/ENTRA/00009</t>
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W46" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -6637,15 +6537,15 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>C-C/00009</t>
+          <t>C-C/00008</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>3809.08</v>
+        <v>3954.28</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>30037.04</t>
+          <t>26227.96</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6662,17 +6562,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6320-C-C/00010</t>
+          <t>6320-C-C/00009</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6687,7 +6587,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>C-C/00010</t>
+          <t>C-C/00009</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
@@ -6695,7 +6595,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>544975</t>
+          <t>544981</t>
         </is>
       </c>
       <c r="I47" s="2" t="n">
@@ -6703,15 +6603,15 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>3988.16</v>
+        <v>3809.08</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>34025.20</t>
+          <t>30037.04</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -6726,17 +6626,17 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>6320-C-C/00010</t>
+          <t>6320-C-C/00009</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -6751,7 +6651,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00011</t>
+          <t>MGZ01/ENTRA/00010</t>
         </is>
       </c>
       <c r="U47" s="2" t="n">
@@ -6767,20 +6667,20 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>C-C/00010</t>
+          <t>C-C/00009</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>3988.16</v>
+        <v>3809.08</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>34025.20</t>
+          <t>30037.04</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6797,17 +6697,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6320-C-C/00011</t>
+          <t>6320-C-C/00010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6822,19 +6722,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>C-C/00011</t>
+          <t>C-C/00010</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>549047</t>
+          <t>544975</t>
         </is>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -6842,11 +6742,11 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>4539.92</v>
+        <v>3988.16</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>38565.12</t>
+          <t>34025.20</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6861,17 +6761,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>6320-C-C/00011</t>
+          <t>6320-C-C/00010</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -6886,19 +6786,19 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00013</t>
+          <t>MGZ01/ENTRA/00011</t>
         </is>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="W48" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -6907,15 +6807,15 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>C-C/00011</t>
+          <t>C-C/00010</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>4539.92</v>
+        <v>3988.16</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>38565.12</t>
+          <t>34025.20</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6932,17 +6832,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6320-C-C/00012</t>
+          <t>6320-C-C/00011</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6957,7 +6857,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>C-C/00012</t>
+          <t>C-C/00011</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
@@ -6965,7 +6865,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>549048</t>
+          <t>549047</t>
         </is>
       </c>
       <c r="I49" s="2" t="n">
@@ -6973,15 +6873,15 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>4014.78</v>
+        <v>4539.92</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>42579.90</t>
+          <t>38565.12</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6996,17 +6896,17 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>6320-C-C/00012</t>
+          <t>6320-C-C/00011</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -7021,7 +6921,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00014</t>
+          <t>MGZ01/ENTRA/00013</t>
         </is>
       </c>
       <c r="U49" s="2" t="n">
@@ -7029,7 +6929,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="W49" s="2" t="n">
@@ -7037,20 +6937,20 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>C-C/00012</t>
+          <t>C-C/00011</t>
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>4014.78</v>
+        <v>4539.92</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>42579.90</t>
+          <t>38565.12</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -7067,17 +6967,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6320-C-C/00013</t>
+          <t>6320-C-C/00012</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7092,31 +6992,31 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>C-C/00013</t>
+          <t>C-C/00012</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>551254</t>
+          <t>549048</t>
         </is>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>4653.66</v>
+        <v>4014.78</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>47233.56</t>
+          <t>42579.90</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -7131,17 +7031,17 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>6320-C-C/00013</t>
+          <t>6320-C-C/00012</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -7156,36 +7056,36 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00015</t>
+          <t>MGZ01/ENTRA/00014</t>
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="W50" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>C-C/00013</t>
+          <t>C-C/00012</t>
         </is>
       </c>
       <c r="Z50" t="n">
-        <v>4653.66</v>
+        <v>4014.78</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>47233.56</t>
+          <t>42579.90</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -7202,17 +7102,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6320-C-C/00014</t>
+          <t>6320-C-C/00013</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7227,7 +7127,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>C-C/00014</t>
+          <t>C-C/00013</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
@@ -7235,7 +7135,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>551267</t>
+          <t>551254</t>
         </is>
       </c>
       <c r="I51" s="2" t="n">
@@ -7243,15 +7143,15 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>4602.84</v>
+        <v>4653.66</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>51836.40</t>
+          <t>47233.56</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -7266,17 +7166,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>6320-C-C/00014</t>
+          <t>6320-C-C/00013</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -7291,7 +7191,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00016</t>
+          <t>MGZ01/ENTRA/00015</t>
         </is>
       </c>
       <c r="U51" s="2" t="n">
@@ -7299,7 +7199,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="W51" s="2" t="n">
@@ -7307,20 +7207,20 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>C-C/00014</t>
+          <t>C-C/00013</t>
         </is>
       </c>
       <c r="Z51" t="n">
-        <v>4602.84</v>
+        <v>4653.66</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>51836.40</t>
+          <t>47233.56</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -7337,17 +7237,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6320-C-C/00015</t>
+          <t>6320-C-C/00014</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7362,31 +7262,31 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>C-C/00015</t>
+          <t>C-C/00014</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>554277</t>
+          <t>551267</t>
         </is>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>4087.38</v>
+        <v>4602.84</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>55923.78</t>
+          <t>51836.40</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -7401,17 +7301,17 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>6320-C-C/00015</t>
+          <t>6320-C-C/00014</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -7426,36 +7326,36 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00017</t>
+          <t>MGZ01/ENTRA/00016</t>
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="W52" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>C-C/00015</t>
+          <t>C-C/00014</t>
         </is>
       </c>
       <c r="Z52" t="n">
-        <v>4087.38</v>
+        <v>4602.84</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>55923.78</t>
+          <t>51836.40</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -7472,17 +7372,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6320-C-C/00016</t>
+          <t>6320-C-C/00015</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7497,7 +7397,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>C-C/00016</t>
+          <t>C-C/00015</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
@@ -7505,7 +7405,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>554290</t>
+          <t>554277</t>
         </is>
       </c>
       <c r="I53" s="2" t="n">
@@ -7513,15 +7413,15 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>4232.58</v>
+        <v>4087.38</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>60156.36</t>
+          <t>55923.78</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -7536,17 +7436,17 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>6320-C-C/00016</t>
+          <t>6320-C-C/00015</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -7561,7 +7461,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00018</t>
+          <t>MGZ01/ENTRA/00017</t>
         </is>
       </c>
       <c r="U53" s="2" t="n">
@@ -7569,7 +7469,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="W53" s="2" t="n">
@@ -7577,20 +7477,20 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>C-C/00016</t>
+          <t>C-C/00015</t>
         </is>
       </c>
       <c r="Z53" t="n">
-        <v>4232.58</v>
+        <v>4087.38</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>60156.36</t>
+          <t>55923.78</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -7607,17 +7507,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6320-C-C/00017</t>
+          <t>6320-C-C/00016</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7632,31 +7532,31 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>C-C/00017</t>
+          <t>C-C/00016</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>556839</t>
+          <t>554290</t>
         </is>
       </c>
       <c r="I54" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>4334.22</v>
+        <v>4232.58</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>64490.58</t>
+          <t>60156.36</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -7671,17 +7571,17 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>6320-C-C/00017</t>
+          <t>6320-C-C/00016</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -7696,36 +7596,36 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00019</t>
+          <t>MGZ01/ENTRA/00018</t>
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="W54" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>C-C/00017</t>
+          <t>C-C/00016</t>
         </is>
       </c>
       <c r="Z54" t="n">
-        <v>4334.22</v>
+        <v>4232.58</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>64490.58</t>
+          <t>60156.36</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -7742,17 +7642,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6320-C-C/00018</t>
+          <t>6320-C-C/00017</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7767,7 +7667,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>C-C/00018</t>
+          <t>C-C/00017</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
@@ -7775,7 +7675,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>556843</t>
+          <t>556839</t>
         </is>
       </c>
       <c r="I55" s="2" t="n">
@@ -7783,15 +7683,15 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>4365.68</v>
+        <v>4334.22</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>68856.26</t>
+          <t>64490.58</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -7806,17 +7706,17 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>6320-C-C/00018</t>
+          <t>6320-C-C/00017</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -7831,7 +7731,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00020</t>
+          <t>MGZ01/ENTRA/00019</t>
         </is>
       </c>
       <c r="U55" s="2" t="n">
@@ -7839,7 +7739,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="W55" s="2" t="n">
@@ -7847,20 +7747,20 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>C-C/00018</t>
+          <t>C-C/00017</t>
         </is>
       </c>
       <c r="Z55" t="n">
-        <v>4365.68</v>
+        <v>4334.22</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>68856.26</t>
+          <t>64490.58</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -7877,44 +7777,44 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6352-C-C/00001</t>
+          <t>6320-C-C/00018</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6352</t>
+          <t>6320</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ADG32 6352 SAANANOU SL</t>
+          <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>C-C/00001</t>
+          <t>C-C/00018</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45947</v>
+        <v>46001</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>535312</t>
+          <t>556843</t>
         </is>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45947</v>
+        <v>46001</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -7922,11 +7822,11 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1056.33</v>
+        <v>4365.68</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1056.33</t>
+          <t>68856.26</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -7941,44 +7841,44 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>6352-C-C/00001</t>
+          <t>6320-C-C/00018</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>6352</t>
+          <t>6320</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>ADG32 6352 SAANANOU SL</t>
+          <t>ADG32 6320 MNAVARRO SL</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00001</t>
+          <t>MGZ01/ENTRA/00020</t>
         </is>
       </c>
       <c r="U56" s="2" t="n">
-        <v>45947</v>
+        <v>46001</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="W56" s="2" t="n">
-        <v>45947</v>
+        <v>46001</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -7987,15 +7887,15 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>C-C/00001</t>
+          <t>C-C/00018</t>
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>1056.33</v>
+        <v>4365.68</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>1056.33</t>
+          <t>68856.26</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -8012,17 +7912,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6352-C-C/00002</t>
+          <t>6352-C-C/00001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -8037,7 +7937,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>C-C/00002</t>
+          <t>C-C/00001</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
@@ -8045,7 +7945,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>535285</t>
+          <t>535312</t>
         </is>
       </c>
       <c r="I57" s="2" t="n">
@@ -8053,15 +7953,15 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1266.87</v>
+        <v>1056.33</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2323.20</t>
+          <t>1056.33</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -8076,17 +7976,17 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>6352-C-C/00002</t>
+          <t>6352-C-C/00001</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -8101,7 +8001,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00002</t>
+          <t>MGZ01/ENTRA/00001</t>
         </is>
       </c>
       <c r="U57" s="2" t="n">
@@ -8109,7 +8009,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W57" s="2" t="n">
@@ -8117,20 +8017,20 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>C-C/00002</t>
+          <t>C-C/00001</t>
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>1266.87</v>
+        <v>1056.33</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2323.20</t>
+          <t>1056.33</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -8147,17 +8047,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6352-C-C/00003</t>
+          <t>6352-C-C/00002</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -8172,19 +8072,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>C-C/00003</t>
+          <t>C-C/00002</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45953</v>
+        <v>45947</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>537112</t>
+          <t>535285</t>
         </is>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45952</v>
+        <v>45947</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -8192,11 +8092,11 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>4020.23</v>
+        <v>1266.87</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>6343.43</t>
+          <t>2323.20</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -8211,17 +8111,17 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>6352-C-C/00003</t>
+          <t>6352-C-C/00002</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -8236,19 +8136,19 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00003</t>
+          <t>MGZ01/ENTRA/00002</t>
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45953</v>
+        <v>45947</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W58" s="2" t="n">
-        <v>45952</v>
+        <v>45947</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -8257,15 +8157,15 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>C-C/00003</t>
+          <t>C-C/00002</t>
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>4020.23</v>
+        <v>1266.87</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>6343.43</t>
+          <t>2323.20</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -8282,17 +8182,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6352-C-C/00004</t>
+          <t>6352-C-C/00003</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8307,7 +8207,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>C-C/00004</t>
+          <t>C-C/00003</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
@@ -8315,7 +8215,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>537115</t>
+          <t>537112</t>
         </is>
       </c>
       <c r="I59" s="2" t="n">
@@ -8323,15 +8223,15 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>3661.46</v>
+        <v>4020.23</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>10004.89</t>
+          <t>6343.43</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -8346,17 +8246,17 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>6352-C-C/00004</t>
+          <t>6352-C-C/00003</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -8371,7 +8271,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00004</t>
+          <t>MGZ01/ENTRA/00003</t>
         </is>
       </c>
       <c r="U59" s="2" t="n">
@@ -8379,7 +8279,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W59" s="2" t="n">
@@ -8387,20 +8287,20 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>C-C/00004</t>
+          <t>C-C/00003</t>
         </is>
       </c>
       <c r="Z59" t="n">
-        <v>3661.46</v>
+        <v>4020.23</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>10004.89</t>
+          <t>6343.43</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -8417,125 +8317,125 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6352-C-C/00005</t>
+          <t>6352-C-C/00004</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6352</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ADG32 6352 SAANANOU SL</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>C-C/00004</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>537115</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ROCALLA SA</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>3661.46</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>10004.89</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Pedido de compra</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Totalmente facturado</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>6352-C-C/00004</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>6352</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>ADG32 6352 SAANANOU SL</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>MGZ01/ENTRA/00004</t>
+        </is>
+      </c>
+      <c r="U60" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>6352</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>ADG32 6352 SAANANOU SL</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>C-C/00005</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>540133</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>ALUBIX SL</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>4325.15</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>14330.04</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Pedido de compra</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Totalmente facturado</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>6352-C-C/00005</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>6352</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>ADG32 6352 SAANANOU SL</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>MGZ01/ENTRA/00005</t>
-        </is>
-      </c>
-      <c r="U60" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="W60" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>C-C/00005</t>
+          <t>C-C/00004</t>
         </is>
       </c>
       <c r="Z60" t="n">
-        <v>4325.15</v>
+        <v>3661.46</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>14330.04</t>
+          <t>10004.89</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -8552,17 +8452,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6352-C-C/00006</t>
+          <t>6352-C-C/00005</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8577,7 +8477,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>C-C/00006</t>
+          <t>C-C/00005</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
@@ -8585,7 +8485,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>540134</t>
+          <t>540133</t>
         </is>
       </c>
       <c r="I61" s="2" t="n">
@@ -8593,15 +8493,15 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>3539.25</v>
+        <v>4325.15</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>17869.29</t>
+          <t>14330.04</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -8616,17 +8516,17 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>6352-C-C/00006</t>
+          <t>6352-C-C/00005</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -8641,7 +8541,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00007</t>
+          <t>MGZ01/ENTRA/00005</t>
         </is>
       </c>
       <c r="U61" s="2" t="n">
@@ -8649,7 +8549,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W61" s="2" t="n">
@@ -8657,20 +8557,20 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>C-C/00006</t>
+          <t>C-C/00005</t>
         </is>
       </c>
       <c r="Z61" t="n">
-        <v>3539.25</v>
+        <v>4325.15</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>17869.29</t>
+          <t>14330.04</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -8687,17 +8587,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6352-C-C/00007</t>
+          <t>6352-C-C/00006</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8712,31 +8612,31 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>C-C/00007</t>
+          <t>C-C/00006</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>542386</t>
+          <t>540134</t>
         </is>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>4266.46</v>
+        <v>3539.25</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>22135.75</t>
+          <t>17869.29</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -8751,17 +8651,17 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>6352-C-C/00007</t>
+          <t>6352-C-C/00006</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -8776,36 +8676,36 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00008</t>
+          <t>MGZ01/ENTRA/00007</t>
         </is>
       </c>
       <c r="U62" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="W62" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>C-C/00007</t>
+          <t>C-C/00006</t>
         </is>
       </c>
       <c r="Z62" t="n">
-        <v>4266.46</v>
+        <v>3539.25</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>22135.75</t>
+          <t>17869.29</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -8822,17 +8722,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6352-C-C/00008</t>
+          <t>6352-C-C/00007</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8847,7 +8747,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>C-C/00008</t>
+          <t>C-C/00007</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
@@ -8855,7 +8755,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>542389</t>
+          <t>542386</t>
         </is>
       </c>
       <c r="I63" s="2" t="n">
@@ -8863,15 +8763,15 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>3643.31</v>
+        <v>4266.46</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>25779.06</t>
+          <t>22135.75</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -8886,17 +8786,17 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>6352-C-C/00008</t>
+          <t>6352-C-C/00007</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -8911,7 +8811,7 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00009</t>
+          <t>MGZ01/ENTRA/00008</t>
         </is>
       </c>
       <c r="U63" s="2" t="n">
@@ -8919,7 +8819,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="W63" s="2" t="n">
@@ -8927,20 +8827,20 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>C-C/00008</t>
+          <t>C-C/00007</t>
         </is>
       </c>
       <c r="Z63" t="n">
-        <v>3643.31</v>
+        <v>4266.46</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>25779.06</t>
+          <t>22135.75</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -8957,17 +8857,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6352-C-C/00009</t>
+          <t>6352-C-C/00008</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8982,31 +8882,31 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>C-C/00009</t>
+          <t>C-C/00008</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>545031</t>
+          <t>542389</t>
         </is>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>4049.27</v>
+        <v>3643.31</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>29828.33</t>
+          <t>25779.06</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -9021,17 +8921,17 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>6352-C-C/00009</t>
+          <t>6352-C-C/00008</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -9046,36 +8946,36 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00011</t>
+          <t>MGZ01/ENTRA/00009</t>
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W64" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>C-C/00009</t>
+          <t>C-C/00008</t>
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>4049.27</v>
+        <v>3643.31</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>29828.33</t>
+          <t>25779.06</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -9092,17 +8992,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6352-C-C/00010</t>
+          <t>6352-C-C/00009</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -9117,7 +9017,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>C-C/00010</t>
+          <t>C-C/00009</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
@@ -9125,7 +9025,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>545032</t>
+          <t>545031</t>
         </is>
       </c>
       <c r="I65" s="2" t="n">
@@ -9133,15 +9033,15 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>3403.73</v>
+        <v>4049.27</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>33232.06</t>
+          <t>29828.33</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9156,17 +9056,17 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>6352-C-C/00010</t>
+          <t>6352-C-C/00009</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -9181,7 +9081,7 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00012</t>
+          <t>MGZ01/ENTRA/00011</t>
         </is>
       </c>
       <c r="U65" s="2" t="n">
@@ -9189,7 +9089,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="W65" s="2" t="n">
@@ -9197,20 +9097,20 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>C-C/00010</t>
+          <t>C-C/00009</t>
         </is>
       </c>
       <c r="Z65" t="n">
-        <v>3403.73</v>
+        <v>4049.27</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>33232.06</t>
+          <t>29828.33</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -9227,17 +9127,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6352-C-C/00011</t>
+          <t>6352-C-C/00010</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -9252,31 +9152,31 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>C-C/00011</t>
+          <t>C-C/00010</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>548396</t>
+          <t>545032</t>
         </is>
       </c>
       <c r="I66" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>3916.77</v>
+        <v>3403.73</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>37148.83</t>
+          <t>33232.06</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -9291,17 +9191,17 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>6352-C-C/00011</t>
+          <t>6352-C-C/00010</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -9316,36 +9216,36 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00013</t>
+          <t>MGZ01/ENTRA/00012</t>
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W66" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>C-C/00011</t>
+          <t>C-C/00010</t>
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>3916.77</v>
+        <v>3403.73</v>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>37148.83</t>
+          <t>33232.06</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -9362,17 +9262,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6352-C-C/00012</t>
+          <t>6352-C-C/00011</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -9387,7 +9287,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>C-C/00012</t>
+          <t>C-C/00011</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
@@ -9395,7 +9295,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>548397</t>
+          <t>548396</t>
         </is>
       </c>
       <c r="I67" s="2" t="n">
@@ -9403,15 +9303,15 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>3781.25</v>
+        <v>3916.77</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>40930.08</t>
+          <t>37148.83</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -9426,17 +9326,17 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>6352-C-C/00012</t>
+          <t>6352-C-C/00011</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -9451,7 +9351,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00014</t>
+          <t>MGZ01/ENTRA/00013</t>
         </is>
       </c>
       <c r="U67" s="2" t="n">
@@ -9459,7 +9359,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="W67" s="2" t="n">
@@ -9467,20 +9367,20 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>C-C/00012</t>
+          <t>C-C/00011</t>
         </is>
       </c>
       <c r="Z67" t="n">
-        <v>3781.25</v>
+        <v>3916.77</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>40930.08</t>
+          <t>37148.83</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -9497,17 +9397,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6352-C-C/00013</t>
+          <t>6352-C-C/00012</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -9522,31 +9422,31 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>C-C/00013</t>
+          <t>C-C/00012</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>548397</t>
         </is>
       </c>
       <c r="I68" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>4823.06</v>
+        <v>3781.25</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>45753.14</t>
+          <t>40930.08</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -9561,17 +9461,17 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>6352-C-C/00013</t>
+          <t>6352-C-C/00012</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -9586,36 +9486,36 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00015</t>
+          <t>MGZ01/ENTRA/00014</t>
         </is>
       </c>
       <c r="U68" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W68" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>C-C/00013</t>
+          <t>C-C/00012</t>
         </is>
       </c>
       <c r="Z68" t="n">
-        <v>4823.06</v>
+        <v>3781.25</v>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>45753.14</t>
+          <t>40930.08</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -9632,17 +9532,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6352-C-C/00014</t>
+          <t>6352-C-C/00013</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -9657,7 +9557,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>C-C/00014</t>
+          <t>C-C/00013</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
@@ -9665,7 +9565,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>551301</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="I69" s="2" t="n">
@@ -9673,15 +9573,15 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>4241.05</v>
+        <v>4823.06</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>49994.19</t>
+          <t>45753.14</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -9696,17 +9596,17 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>6352-C-C/00014</t>
+          <t>6352-C-C/00013</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -9721,7 +9621,7 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00016</t>
+          <t>MGZ01/ENTRA/00015</t>
         </is>
       </c>
       <c r="U69" s="2" t="n">
@@ -9729,7 +9629,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="W69" s="2" t="n">
@@ -9737,20 +9637,20 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>C-C/00014</t>
+          <t>C-C/00013</t>
         </is>
       </c>
       <c r="Z69" t="n">
-        <v>4241.05</v>
+        <v>4823.06</v>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>49994.19</t>
+          <t>45753.14</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -9767,17 +9667,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6352-C-C/00015</t>
+          <t>6352-C-C/00014</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -9792,31 +9692,31 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>C-C/00015</t>
+          <t>C-C/00014</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>554360</t>
+          <t>551301</t>
         </is>
       </c>
       <c r="I70" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>4040.8</v>
+        <v>4241.05</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>54034.99</t>
+          <t>49994.19</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -9831,17 +9731,17 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>6352-C-C/00015</t>
+          <t>6352-C-C/00014</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -9856,36 +9756,36 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00017</t>
+          <t>MGZ01/ENTRA/00016</t>
         </is>
       </c>
       <c r="U70" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="W70" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>C-C/00015</t>
+          <t>C-C/00014</t>
         </is>
       </c>
       <c r="Z70" t="n">
-        <v>4040.8</v>
+        <v>4241.05</v>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>54034.99</t>
+          <t>49994.19</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -9902,17 +9802,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6352-C-C/00016</t>
+          <t>6352-C-C/00015</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -9927,7 +9827,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>C-C/00016</t>
+          <t>C-C/00015</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
@@ -9935,7 +9835,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>554362</t>
+          <t>554360</t>
         </is>
       </c>
       <c r="I71" s="2" t="n">
@@ -9943,15 +9843,15 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>3861.11</v>
+        <v>4040.8</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>57896.10</t>
+          <t>54034.99</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -9966,17 +9866,17 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>6352-C-C/00016</t>
+          <t>6352-C-C/00015</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -9991,7 +9891,7 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00018</t>
+          <t>MGZ01/ENTRA/00017</t>
         </is>
       </c>
       <c r="U71" s="2" t="n">
@@ -9999,7 +9899,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="W71" s="2" t="n">
@@ -10007,20 +9907,20 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>C-C/00016</t>
+          <t>C-C/00015</t>
         </is>
       </c>
       <c r="Z71" t="n">
-        <v>3861.11</v>
+        <v>4040.8</v>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>57896.10</t>
+          <t>54034.99</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -10037,17 +9937,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6352-C-C/00017</t>
+          <t>6352-C-C/00016</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -10062,31 +9962,31 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>C-C/00017</t>
+          <t>C-C/00016</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>556920</t>
+          <t>554362</t>
         </is>
       </c>
       <c r="I72" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>4420.74</v>
+        <v>3861.11</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>62316.84</t>
+          <t>57896.10</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -10101,17 +10001,17 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>6352-C-C/00017</t>
+          <t>6352-C-C/00016</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -10126,36 +10026,36 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00019</t>
+          <t>MGZ01/ENTRA/00018</t>
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="W72" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>ALUBIX SL</t>
+          <t>ROCALLA SA</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>C-C/00017</t>
+          <t>C-C/00016</t>
         </is>
       </c>
       <c r="Z72" t="n">
-        <v>4420.74</v>
+        <v>3861.11</v>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>62316.84</t>
+          <t>57896.10</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -10172,17 +10072,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6352-C-C/00018</t>
+          <t>6352-C-C/00017</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -10197,7 +10097,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>C-C/00018</t>
+          <t>C-C/00017</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
@@ -10205,7 +10105,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>556921</t>
+          <t>556920</t>
         </is>
       </c>
       <c r="I73" s="2" t="n">
@@ -10213,15 +10113,15 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ROCALLA SA</t>
+          <t>ALUBIX SL</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>3950.65</v>
+        <v>4420.74</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>66267.49</t>
+          <t>62316.84</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -10236,17 +10136,17 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>6352-C-C/00018</t>
+          <t>6352-C-C/00017</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -10261,7 +10161,7 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>MGZ01/ENTRA/00020</t>
+          <t>MGZ01/ENTRA/00019</t>
         </is>
       </c>
       <c r="U73" s="2" t="n">
@@ -10269,7 +10169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="W73" s="2" t="n">
@@ -10277,28 +10177,163 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
+          <t>ALUBIX SL</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>C-C/00017</t>
+        </is>
+      </c>
+      <c r="Z73" t="n">
+        <v>4420.74</v>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>62316.84</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Hecho</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>6352-C-C/00018</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6352</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ADG32 6352 SAANANOU SL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>C-C/00018</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>556921</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>ROCALLA SA</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="K74" t="n">
+        <v>3950.65</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>66267.49</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Pedido de compra</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Totalmente facturado</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>6352-C-C/00018</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>6352</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>ADG32 6352 SAANANOU SL</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>MGZ01/ENTRA/00020</t>
+        </is>
+      </c>
+      <c r="U74" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="W74" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>ROCALLA SA</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
         <is>
           <t>C-C/00018</t>
         </is>
       </c>
-      <c r="Z73" t="n">
+      <c r="Z74" t="n">
         <v>3950.65</v>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AA74" t="inlineStr">
         <is>
           <t>66267.49</t>
         </is>
       </c>
-      <c r="AB73" t="inlineStr">
+      <c r="AB74" t="inlineStr">
         <is>
           <t>Hecho</t>
         </is>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AC74" t="inlineStr">
         <is>
           <t>both</t>
         </is>
